--- a/biology/Zoologie/Corythucha/Corythucha.xlsx
+++ b/biology/Zoologie/Corythucha/Corythucha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corythucha est un genre d'insectes de l'ordre des hémiptères, du sous-ordre des hétéroptères (punaises), de la famille des Tingidae, de la sous-famille des Tinginae et de la tribu des Tingini.
 Corythucha est un petit insecte d'environ 1 à 2 millimètres, se trouvant généralement proche des arbres de type Platanaceae et pouvant voler.
-Le genre, identifié par l'entomologiste suédois Carl Stål en 1873, est originaire des écozones néarctique et néotropicale et comprend environ 70 espèces[2]. C'est en Amérique du Nord que le genre présente la plus grande diversité avec environ 50 espèces[2]. Environ 10 espèces sont présentes en Amérique du Sud. Plusieurs espèces ont été transportées sur d'autres continents. En France, on trouve depuis 1975, le tigre du platane (C. ciliata)[3] et depuis 2017, le tigre du chêne (C. arcuata)[4].
+Le genre, identifié par l'entomologiste suédois Carl Stål en 1873, est originaire des écozones néarctique et néotropicale et comprend environ 70 espèces. C'est en Amérique du Nord que le genre présente la plus grande diversité avec environ 50 espèces. Environ 10 espèces sont présentes en Amérique du Sud. Plusieurs espèces ont été transportées sur d'autres continents. En France, on trouve depuis 1975, le tigre du platane (C. ciliata) et depuis 2017, le tigre du chêne (C. arcuata).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Corythucha abdita  Drake, 1948
